--- a/Datatest/Cases.xlsx
+++ b/Datatest/Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MyCrm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MyCrm\CloneCrm\Datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -56,12 +56,6 @@
     <t>teams</t>
   </si>
   <si>
-    <t>created by</t>
-  </si>
-  <si>
-    <t>created on</t>
-  </si>
-  <si>
     <t>Meeting</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>closed on</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -126,15 +117,423 @@
   </si>
   <si>
     <t>Linh</t>
+  </si>
+  <si>
+    <t>team1</t>
+  </si>
+  <si>
+    <t>team2</t>
+  </si>
+  <si>
+    <t>team3</t>
+  </si>
+  <si>
+    <t>team4</t>
+  </si>
+  <si>
+    <t>Call1</t>
+  </si>
+  <si>
+    <t>Call2</t>
+  </si>
+  <si>
+    <t>task5</t>
+  </si>
+  <si>
+    <t>team5</t>
+  </si>
+  <si>
+    <t>Call3</t>
+  </si>
+  <si>
+    <t>task6</t>
+  </si>
+  <si>
+    <t>team6</t>
+  </si>
+  <si>
+    <t>Call4</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>team7</t>
+  </si>
+  <si>
+    <t>Call5</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>team8</t>
+  </si>
+  <si>
+    <t>Call6</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>team9</t>
+  </si>
+  <si>
+    <t>Call7</t>
+  </si>
+  <si>
+    <t>task10</t>
+  </si>
+  <si>
+    <t>team10</t>
+  </si>
+  <si>
+    <t>Call8</t>
+  </si>
+  <si>
+    <t>task11</t>
+  </si>
+  <si>
+    <t>team11</t>
+  </si>
+  <si>
+    <t>Call9</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>team12</t>
+  </si>
+  <si>
+    <t>Call10</t>
+  </si>
+  <si>
+    <t>task13</t>
+  </si>
+  <si>
+    <t>team13</t>
+  </si>
+  <si>
+    <t>Call11</t>
+  </si>
+  <si>
+    <t>task14</t>
+  </si>
+  <si>
+    <t>team14</t>
+  </si>
+  <si>
+    <t>Call12</t>
+  </si>
+  <si>
+    <t>task15</t>
+  </si>
+  <si>
+    <t>team15</t>
+  </si>
+  <si>
+    <t>Call13</t>
+  </si>
+  <si>
+    <t>task16</t>
+  </si>
+  <si>
+    <t>team16</t>
+  </si>
+  <si>
+    <t>Call14</t>
+  </si>
+  <si>
+    <t>task17</t>
+  </si>
+  <si>
+    <t>team17</t>
+  </si>
+  <si>
+    <t>Call15</t>
+  </si>
+  <si>
+    <t>task18</t>
+  </si>
+  <si>
+    <t>team18</t>
+  </si>
+  <si>
+    <t>Call16</t>
+  </si>
+  <si>
+    <t>task19</t>
+  </si>
+  <si>
+    <t>team19</t>
+  </si>
+  <si>
+    <t>Call17</t>
+  </si>
+  <si>
+    <t>task20</t>
+  </si>
+  <si>
+    <t>team20</t>
+  </si>
+  <si>
+    <t>Call18</t>
+  </si>
+  <si>
+    <t>task21</t>
+  </si>
+  <si>
+    <t>team21</t>
+  </si>
+  <si>
+    <t>Call19</t>
+  </si>
+  <si>
+    <t>task22</t>
+  </si>
+  <si>
+    <t>team22</t>
+  </si>
+  <si>
+    <t>Call20</t>
+  </si>
+  <si>
+    <t>task23</t>
+  </si>
+  <si>
+    <t>team23</t>
+  </si>
+  <si>
+    <t>Call21</t>
+  </si>
+  <si>
+    <t>task24</t>
+  </si>
+  <si>
+    <t>team24</t>
+  </si>
+  <si>
+    <t>Call22</t>
+  </si>
+  <si>
+    <t>task25</t>
+  </si>
+  <si>
+    <t>team25</t>
+  </si>
+  <si>
+    <t>Call23</t>
+  </si>
+  <si>
+    <t>task26</t>
+  </si>
+  <si>
+    <t>team26</t>
+  </si>
+  <si>
+    <t>Call24</t>
+  </si>
+  <si>
+    <t>task27</t>
+  </si>
+  <si>
+    <t>team27</t>
+  </si>
+  <si>
+    <t>Call25</t>
+  </si>
+  <si>
+    <t>task28</t>
+  </si>
+  <si>
+    <t>team28</t>
+  </si>
+  <si>
+    <t>Call26</t>
+  </si>
+  <si>
+    <t>task29</t>
+  </si>
+  <si>
+    <t>team29</t>
+  </si>
+  <si>
+    <t>Call27</t>
+  </si>
+  <si>
+    <t>task30</t>
+  </si>
+  <si>
+    <t>team30</t>
+  </si>
+  <si>
+    <t>Call28</t>
+  </si>
+  <si>
+    <t>task31</t>
+  </si>
+  <si>
+    <t>team31</t>
+  </si>
+  <si>
+    <t>Call29</t>
+  </si>
+  <si>
+    <t>task32</t>
+  </si>
+  <si>
+    <t>team32</t>
+  </si>
+  <si>
+    <t>Call30</t>
+  </si>
+  <si>
+    <t>task33</t>
+  </si>
+  <si>
+    <t>team33</t>
+  </si>
+  <si>
+    <t>Call31</t>
+  </si>
+  <si>
+    <t>task34</t>
+  </si>
+  <si>
+    <t>team34</t>
+  </si>
+  <si>
+    <t>Call32</t>
+  </si>
+  <si>
+    <t>task35</t>
+  </si>
+  <si>
+    <t>team35</t>
+  </si>
+  <si>
+    <t>Call33</t>
+  </si>
+  <si>
+    <t>task36</t>
+  </si>
+  <si>
+    <t>team36</t>
+  </si>
+  <si>
+    <t>Call34</t>
+  </si>
+  <si>
+    <t>task37</t>
+  </si>
+  <si>
+    <t>team37</t>
+  </si>
+  <si>
+    <t>Call35</t>
+  </si>
+  <si>
+    <t>task38</t>
+  </si>
+  <si>
+    <t>team38</t>
+  </si>
+  <si>
+    <t>Call36</t>
+  </si>
+  <si>
+    <t>task39</t>
+  </si>
+  <si>
+    <t>team39</t>
+  </si>
+  <si>
+    <t>Call37</t>
+  </si>
+  <si>
+    <t>task40</t>
+  </si>
+  <si>
+    <t>team40</t>
+  </si>
+  <si>
+    <t>Call38</t>
+  </si>
+  <si>
+    <t>task41</t>
+  </si>
+  <si>
+    <t>team41</t>
+  </si>
+  <si>
+    <t>Call39</t>
+  </si>
+  <si>
+    <t>task42</t>
+  </si>
+  <si>
+    <t>team42</t>
+  </si>
+  <si>
+    <t>Call40</t>
+  </si>
+  <si>
+    <t>task43</t>
+  </si>
+  <si>
+    <t>team43</t>
+  </si>
+  <si>
+    <t>Call41</t>
+  </si>
+  <si>
+    <t>task44</t>
+  </si>
+  <si>
+    <t>team44</t>
+  </si>
+  <si>
+    <t>Call42</t>
+  </si>
+  <si>
+    <t>task45</t>
+  </si>
+  <si>
+    <t>team45</t>
+  </si>
+  <si>
+    <t>Call43</t>
+  </si>
+  <si>
+    <t>task46</t>
+  </si>
+  <si>
+    <t>team46</t>
+  </si>
+  <si>
+    <t>Call44</t>
+  </si>
+  <si>
+    <t>task47</t>
+  </si>
+  <si>
+    <t>team47</t>
+  </si>
+  <si>
+    <t>Call45</t>
+  </si>
+  <si>
+    <t>task48</t>
+  </si>
+  <si>
+    <t>team48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,9 +563,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,14 +860,11 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,153 +887,1405 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1">
-        <v>43469.896469907406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1">
-        <v>43470.896469907406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1">
-        <v>43472.89646851852</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1">
-        <v>43471.896469907406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="1">
-        <v>43466.896469907406</v>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
